--- a/all function.xlsx
+++ b/all function.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="168">
   <si>
     <t>No.</t>
   </si>
@@ -451,18 +451,1515 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">u  jtrue if the search string is found anywhere within the given string; otherwise, false if not.
-</t>
-  </si>
-  <si>
     <t>true if the search string is found anywhere within the given string; otherwise, false if not.</t>
+  </si>
+  <si>
+    <r>
+      <t>match(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> null</t>
+    </r>
+  </si>
+  <si>
+    <t>An Array whose contents depend on the presence or absence of the global (g) flag, or null if no matches are found.</t>
+  </si>
+  <si>
+    <r>
+      <t>search(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -1</t>
+    </r>
+  </si>
+  <si>
+    <t>The index of the first match between the regular expression and the given string, or -1 if no match was found.</t>
+  </si>
+  <si>
+    <r>
+      <t>padEnd(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>targetLength, padString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A String of the specified targetLength with the padString applied at the end of the current str.</t>
+  </si>
+  <si>
+    <r>
+      <t>padStart(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>targetLength, padString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A String of the specified targetLength with padString applied from the start.</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>account number</t>
+  </si>
+  <si>
+    <r>
+      <t>repeat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>repeat string</t>
+  </si>
+  <si>
+    <t>A new string containing the specified number of copies of the given string.</t>
+  </si>
+  <si>
+    <r>
+      <t>replace(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SearchValue,replaceValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>replace first occurrence</t>
+  </si>
+  <si>
+    <t>A new string, with some or all matches of a pattern replaced by a replacement.</t>
+  </si>
+  <si>
+    <r>
+      <t>replaceAll(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SearchValue,replaceValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A new string, with all matches of a pattern replaced by a replacement.</t>
+  </si>
+  <si>
+    <t>replace all occurrence</t>
+  </si>
+  <si>
+    <t>A new string containing the extracted section of the string.</t>
+  </si>
+  <si>
+    <r>
+      <t>slice(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StartNumber+-,EndNumber+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>substr(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>startNumber+-, length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a section of string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>A new string containing the specified part of the given string.</t>
+  </si>
+  <si>
+    <r>
+      <t>substring(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StartNumber, EndNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>length never nagetive</t>
+  </si>
+  <si>
+    <t>nagetive number means and NaN means 0</t>
+  </si>
+  <si>
+    <r>
+      <t>split(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> " "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">array of character </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> array of word</t>
+    </r>
+  </si>
+  <si>
+    <t>An Array of strings, split at each point where the separator occurs in the given string.</t>
+  </si>
+  <si>
+    <r>
+      <t>startsWith(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchString, position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>true if the given characters are found at the beginning of the string; otherwise, false.</t>
+  </si>
+  <si>
+    <t>toLowerCase()</t>
+  </si>
+  <si>
+    <t>A new string representing the calling string converted to lower case.</t>
+  </si>
+  <si>
+    <t>converted to lower case.</t>
+  </si>
+  <si>
+    <t>toUpperCase()</t>
+  </si>
+  <si>
+    <t>A new string representing the calling string converted to upper case.</t>
+  </si>
+  <si>
+    <t>converted to upper case.</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>A string representing the calling object.</t>
+  </si>
+  <si>
+    <t>converted array to string or calling object</t>
+  </si>
+  <si>
+    <t>A new string representing str stripped of whitespace from both its beginning and end.</t>
+  </si>
+  <si>
+    <t>trim()</t>
+  </si>
+  <si>
+    <t>remove space start and end</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trimEnd() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trimRight()</t>
+    </r>
+  </si>
+  <si>
+    <t>remove space end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove space start </t>
+  </si>
+  <si>
+    <t>A new string representing str stripped of whitespace from its end (right side).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trimStart() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trimLeft()</t>
+    </r>
+  </si>
+  <si>
+    <t>A new string representing str stripped of whitespace from its beginning (left side).</t>
+  </si>
+  <si>
+    <t>A string representing the primitive value of a given String object.</t>
+  </si>
+  <si>
+    <t>valueOf()</t>
+  </si>
+  <si>
+    <t>Return (in short)</t>
+  </si>
+  <si>
+    <t>Array Function</t>
+  </si>
+  <si>
+    <t>Math Function</t>
+  </si>
+  <si>
+    <t>The absolute value of the given number.</t>
+  </si>
+  <si>
+    <t>positive number</t>
+  </si>
+  <si>
+    <t>The cube root of the given number.</t>
+  </si>
+  <si>
+    <t>cube root</t>
+  </si>
+  <si>
+    <t>The square root of the given number. If the number is negative, NaN is returned.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">square root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NaN</t>
+    </r>
+  </si>
+  <si>
+    <t>A number representing the largest integer less than or equal to the specified number.</t>
+  </si>
+  <si>
+    <t>The smallest integer greater than or equal to the given number.</t>
+  </si>
+  <si>
+    <t>The nearest 32-bit single precision float representation of the given number.</t>
+  </si>
+  <si>
+    <t>The largest of the given numbers.</t>
+  </si>
+  <si>
+    <t>max number</t>
+  </si>
+  <si>
+    <t>min number</t>
+  </si>
+  <si>
+    <t>The smallest of the given numbers.</t>
+  </si>
+  <si>
+    <r>
+      <t>Math.pow(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>base, exponent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Math.min(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value0, value1, ... , valueN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Math.max(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value0, value1, ... ,valueN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Math.fround(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doubleFloat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Math.ceil(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Math.floor(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Math.sqrt(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Math.cbrt(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Math.abs(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A number representing the given base taken to the power of the given exponent.</t>
+  </si>
+  <si>
+    <t>base^exponent.</t>
+  </si>
+  <si>
+    <t>A floating-point, pseudo-random number between 0 (inclusive) and 1 (exclusive).</t>
+  </si>
+  <si>
+    <t>random number</t>
+  </si>
+  <si>
+    <t>Math.random()*max</t>
+  </si>
+  <si>
+    <t>The value of the given number rounded to the nearest integer.</t>
+  </si>
+  <si>
+    <r>
+      <t>Math.round(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>roundfiger number</t>
+  </si>
+  <si>
+    <r>
+      <t>Math.trunc(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The integer part of the given number.</t>
+  </si>
+  <si>
+    <r>
+      <t>at(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The element in the array matching the given index. Returns undefined if the given index can not be found.</t>
+  </si>
+  <si>
+    <t>element or undefined</t>
+  </si>
+  <si>
+    <r>
+      <t>indexOf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The first index of the element in the array; -1 if not found.</t>
+  </si>
+  <si>
+    <t>index or -1</t>
+  </si>
+  <si>
+    <r>
+      <t>lastIndexOf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>last index or -1</t>
+  </si>
+  <si>
+    <t>The last index of the element in the array; -1 if not found.</t>
+  </si>
+  <si>
+    <r>
+      <t>lastIndexOf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchElement, fromIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>indexOf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchElement,fromIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>fromIndex or 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.concat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value2, ... , arrayN)</t>
+    </r>
+  </si>
+  <si>
+    <t>merge two or more arrays</t>
+  </si>
+  <si>
+    <t>The concat() method is used to merge two or more arrays.</t>
+  </si>
+  <si>
+    <t>entries()</t>
+  </si>
+  <si>
+    <t>a new Array Iterator object that contains the key/value pairs for each index in the array.</t>
+  </si>
+  <si>
+    <t>pair(index and value)</t>
+  </si>
+  <si>
+    <t>true if the callbackFn function returns a truthy value for every array element. Otherwise, false.</t>
+  </si>
+  <si>
+    <r>
+      <t>some((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element, index, array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>every((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element, index, array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>true if the callback function returns a truthy value for at least one element in the array. Otherwise, false.</t>
+  </si>
+  <si>
+    <t>boolean at least one true,return true</t>
+  </si>
+  <si>
+    <t>boolean at least one false,return false</t>
+  </si>
+  <si>
+    <r>
+      <t>fill(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value, start, end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The modified array, filled with value.</t>
+  </si>
+  <si>
+    <t>(main array change)</t>
+  </si>
+  <si>
+    <r>
+      <t>flat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A new array with the sub-array elements concatenated into it.</t>
+  </si>
+  <si>
+    <t>sub-array concatenated</t>
+  </si>
+  <si>
+    <t>A new array with each element being the result of the callback function and flattened to a depth of 1.</t>
+  </si>
+  <si>
+    <r>
+      <t>flatMap((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentValue, index, array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>includes(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchElement, fromIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> whether an array includes a certain value among its entries, returning true or false as appropriate</t>
+  </si>
+  <si>
+    <r>
+      <t>Array.isArray(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>true if the value is an Array; otherwise, false.</t>
+  </si>
+  <si>
+    <r>
+      <t>join(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)  means ""  and  "  "</t>
+    </r>
+  </si>
+  <si>
+    <t>A string with all array elements joined. If arr.length is 0, the empty string is returned.</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <r>
+      <t>push(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element0, element1, ... , elementN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The push() method adds one or more elements to the end of an array and returns the new length of the array.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add element in last  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(main array change)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add element in first  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(main array change)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>unshift(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element0, element1, ... , elementN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The unshift() method adds one or more elements to the beginning of an array and returns the new length of the array.</t>
+  </si>
+  <si>
+    <t>pop()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">remove element in last  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(main array change)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">remove element in first  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(main array change)</t>
+    </r>
+  </si>
+  <si>
+    <t>shift()</t>
+  </si>
+  <si>
+    <t>The pop() method removes the last element from an array and returns that element. This method changes the length of the array.</t>
+  </si>
+  <si>
+    <t>The shift() method removes the first element from an array and returns that removed element. This method changes the length of the array.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,14 +1982,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color rgb="FF00B050"/>
+      <sz val="11"/>
+      <color rgb="FF1B1B1B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -500,21 +2032,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1B1B1B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -522,31 +2074,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,264 +2654,1202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.36328125" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="76.6328125" customWidth="1"/>
+    <col min="5" max="5" width="107.7265625" customWidth="1"/>
+    <col min="6" max="6" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="31" x14ac:dyDescent="0.7">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="34">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="34">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="34">
+        <v>8</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="2:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B20" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
+      <c r="F21" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="17">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="10">
+        <v>4</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="8">
+        <v>5</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="8">
+        <v>6</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="17">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>8</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="10">
+        <v>9</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="17">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="10">
+        <v>11</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="17">
+        <v>12</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="10">
+        <v>13</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="8">
+        <v>14</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="17">
+        <v>15</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="10">
+        <v>16</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="17">
+        <v>17</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
+        <v>18</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="10">
+        <v>19</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="8">
+        <v>20</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="26">
+        <v>21</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="30">
+        <v>22</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="8">
+        <v>23</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="17">
+        <v>24</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
+        <v>25</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="10">
+        <v>26</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
+        <v>27</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
+        <v>28</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
+        <v>29</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="10">
+        <v>30</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="2:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B57" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
+    </row>
+    <row r="58" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F58" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="34">
+        <v>1</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="2"/>
+      <c r="C61" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="2">
+        <v>3</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="2"/>
+      <c r="C63" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="2">
+        <v>4</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="2">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C65" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="2">
+        <v>6</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="2">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C67" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C68" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="2">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C69" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="2">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C70" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C71" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="2">
+        <v>12</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="2">
+        <v>13</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="2">
+        <v>14</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="2">
+        <v>15</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B76" s="2">
+        <v>16</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="2">
+        <v>17</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="2">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C78" s="40"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="2">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C79" s="40"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C80" s="40"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81" s="2">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C81" s="40"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B82" s="2">
+        <v>22</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B83" s="2">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C83" s="40"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84" s="2">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C84" s="40"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B85" s="2">
+        <v>25</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="1">
+      <c r="C86" s="40"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="1">
+      <c r="C87" s="40"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B88" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="1">
+      <c r="C88" s="40"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="1">
+      <c r="C89" s="40"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90" s="2">
         <v>30</v>
       </c>
+      <c r="C90" s="40"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B91" s="2">
+        <v>31</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" s="2">
+        <v>32</v>
+      </c>
+      <c r="C92" s="40"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="2">
+        <v>33</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="2">
+        <v>34</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="2">
+        <v>35</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="2">
+        <v>36</v>
+      </c>
+      <c r="C96" s="40"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="2">
+        <v>37</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="2">
+        <v>38</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C187" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/all function.xlsx
+++ b/all function.xlsx
@@ -2656,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/all function.xlsx
+++ b/all function.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
   <si>
     <t>No.</t>
   </si>
@@ -1120,6 +1120,360 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> whether an array includes a certain value among its entries, returning true or false as appropriate</t>
+  </si>
+  <si>
+    <r>
+      <t>Array.isArray(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>true if the value is an Array; otherwise, false.</t>
+  </si>
+  <si>
+    <r>
+      <t>join(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)  means ""  and  "  "</t>
+    </r>
+  </si>
+  <si>
+    <t>A string with all array elements joined. If arr.length is 0, the empty string is returned.</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <r>
+      <t>push(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element0, element1, ... , elementN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The push() method adds one or more elements to the end of an array and returns the new length of the array.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add element in last  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(main array change)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">add element in first  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(main array change)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>unshift(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element0, element1, ... , elementN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The unshift() method adds one or more elements to the beginning of an array and returns the new length of the array.</t>
+  </si>
+  <si>
+    <t>pop()</t>
+  </si>
+  <si>
+    <t>shift()</t>
+  </si>
+  <si>
+    <t>The pop() method removes the last element from an array and returns that element. This method changes the length of the array.</t>
+  </si>
+  <si>
+    <t>The shift() method removes the first element from an array and returns that removed element. This method changes the length of the array.</t>
+  </si>
+  <si>
+    <r>
+      <t>at(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index +-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)                                                bd 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>charAt(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)                                            bd 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>charCodeAt(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)                                  bd 0</t>
+    </r>
+  </si>
+  <si>
+    <t>cs = Case-sensitivity</t>
+  </si>
+  <si>
+    <r>
+      <t>indexOf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> word,position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)              cs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lastIndexOf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">char </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> word,position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)       cs</t>
+    </r>
+  </si>
+  <si>
+    <t>bd = by default</t>
+  </si>
+  <si>
+    <r>
+      <t>endsWith(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchString, length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)                   cs</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>includes(</t>
     </r>
@@ -1131,6 +1485,262 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>searchString, position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)                  cs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>startsWith(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchString, position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)              cs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>match(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp or char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>search(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regexp or char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[result of matching] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> null</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a section of string </t>
+  </si>
+  <si>
+    <t>nagetive number and NaN means 0</t>
+  </si>
+  <si>
+    <r>
+      <t>substr(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StartIndex+-, length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>substring(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StartIndex, EndNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>slice(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StartIndex+-, EndIndex+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>split(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separator, limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">element </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> undefined</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>indexOf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>searchElement, fromIndex</t>
     </r>
     <r>
@@ -1145,21 +1755,85 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> whether an array includes a certain value among its entries, returning true or false as appropriate</t>
-  </si>
-  <si>
-    <r>
-      <t>Array.isArray(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
+    <r>
+      <t xml:space="preserve">index or -1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">last index or -1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.concat(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array2, ... , arrayN</t>
     </r>
     <r>
       <rPr>
@@ -1173,56 +1847,23 @@
     </r>
   </si>
   <si>
-    <t>true if the value is an Array; otherwise, false.</t>
-  </si>
-  <si>
-    <r>
-      <t>join(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>separator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)  means ""  and  "  "</t>
-    </r>
-  </si>
-  <si>
-    <t>A string with all array elements joined. If arr.length is 0, the empty string is returned.</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <r>
-      <t>push(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>element0, element1, ... , elementN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <r>
+      <t>fill(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value, start+-, end+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1231,11 +1872,53 @@
     </r>
   </si>
   <si>
-    <t>The push() method adds one or more elements to the end of an array and returns the new length of the array.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">add element in last  </t>
+    <r>
+      <t>includes(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchElement, fromIndex+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">remove ele in last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> undefined  </t>
     </r>
     <r>
       <rPr>
@@ -1250,7 +1933,27 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">add element in first  </t>
+      <t xml:space="preserve">remove ele in first </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> undefined  </t>
     </r>
     <r>
       <rPr>
@@ -1264,22 +1967,104 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>unshift(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>element0, element1, ... , elementN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>a new Array Iterator object that contains the keys for each index in the array.</t>
+  </si>
+  <si>
+    <t>keys()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index </t>
+  </si>
+  <si>
+    <t>reverse()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reverse array </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(main array change)</t>
+    </r>
+  </si>
+  <si>
+    <t>The reversed array.</t>
+  </si>
+  <si>
+    <r>
+      <t>sort(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B0F93"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compareFn(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firstEl, secondEl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)=&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The sorted array. </t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <r>
+      <t>slice(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>start+-, end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1288,14 +2073,11 @@
     </r>
   </si>
   <si>
-    <t>The unshift() method adds one or more elements to the beginning of an array and returns the new length of the array.</t>
-  </si>
-  <si>
-    <t>pop()</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">remove element in last  </t>
+    <t>section of an array.</t>
+  </si>
+  <si>
+    <r>
+      <t>section of an array.</t>
     </r>
     <r>
       <rPr>
@@ -1310,119 +2092,60 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">remove element in first  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(main array change)</t>
-    </r>
-  </si>
-  <si>
-    <t>shift()</t>
-  </si>
-  <si>
-    <t>The pop() method removes the last element from an array and returns that element. This method changes the length of the array.</t>
-  </si>
-  <si>
-    <t>The shift() method removes the first element from an array and returns that removed element. This method changes the length of the array.</t>
-  </si>
-  <si>
-    <r>
-      <t>at(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>index +-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)                                                bd 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>charAt(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)                                            bd 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>charCodeAt(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)                                  bd 0</t>
-    </r>
-  </si>
-  <si>
-    <t>cs = Case-sensitivity</t>
-  </si>
-  <si>
-    <r>
-      <t>indexOf(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">char </t>
+      <t>splice(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>start+-, deleteCount, item1, item2, itemN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The first element in the array that satisfies the provided testing function. Otherwise, undefined is returned.</t>
+  </si>
+  <si>
+    <r>
+      <t>find((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element, index, array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) =&gt; { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">satisfies first element </t>
     </r>
     <r>
       <rPr>
@@ -1437,37 +2160,20 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> word,position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)              cs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>lastIndexOf(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">char </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> undefined</t>
+    </r>
+  </si>
+  <si>
+    <t>The forEach() method executes a provided function once for each array element.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for loop </t>
     </r>
     <r>
       <rPr>
@@ -1482,155 +2188,70 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> word,position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)       cs</t>
-    </r>
-  </si>
-  <si>
-    <t>bd = by default</t>
-  </si>
-  <si>
-    <r>
-      <t>endsWith(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>searchString, length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)                   cs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>includes(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>searchString, position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)                  cs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>startsWith(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>searchString, position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)              cs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>match(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regexp or char</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>search(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regexp or char</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[result of matching] </t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> undefined</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>forEach((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element, index, array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>filter((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element, index, array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>A new array with the elements that pass the test. If no elements pass the test, an empty array will be returned.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">satisfies new array  </t>
     </r>
     <r>
       <rPr>
@@ -1640,298 +2261,100 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> null</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">a section of string </t>
-  </si>
-  <si>
-    <t>nagetive number and NaN means 0</t>
-  </si>
-  <si>
-    <r>
-      <t>substr(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StartIndex+-, length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>substring(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StartIndex, EndNumber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>slice(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StartIndex+-, EndIndex+-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>split(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>separator, limit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">element </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> undefined</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>indexOf(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>searchElement, fromIndex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">index or -1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">last index or -1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>array1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.concat(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>array2, ... , arrayN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fill(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value, start+-, end+-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empty array []</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>map((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element, index, array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>satisfies new array  or empty array []</t>
+  </si>
+  <si>
+    <t>A new array with each element being the result of the callback function.</t>
+  </si>
+  <si>
+    <r>
+      <t>reduce((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>previousValue, currentValue, currentIndex, array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) =&gt; { /* ... */ }, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initialValue)</t>
+    </r>
+  </si>
+  <si>
+    <t>The value that results from running the "reducer" callback function to completion over the entire array.</t>
+  </si>
+  <si>
+    <t>The value that results from running the "reducer"</t>
+  </si>
+  <si>
+    <t>A string representing the elements of the array.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2004,6 +2427,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B0F93"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2628,16 +3058,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="3" max="3" width="43.6328125" customWidth="1"/>
+    <col min="4" max="4" width="45.81640625" customWidth="1"/>
     <col min="5" max="5" width="107.7265625" customWidth="1"/>
     <col min="6" max="6" width="41.1796875" customWidth="1"/>
   </cols>
@@ -2860,12 +3290,12 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C18" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
@@ -2899,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>4</v>
@@ -2912,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>5</v>
@@ -2927,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -2942,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
@@ -2957,7 +3387,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>10</v>
@@ -2987,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>17</v>
@@ -3002,7 +3432,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
@@ -3017,7 +3447,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>17</v>
@@ -3032,10 +3462,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>19</v>
@@ -3047,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>7</v>
@@ -3137,10 +3567,10 @@
         <v>17</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>36</v>
@@ -3152,10 +3582,10 @@
         <v>18</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>37</v>
@@ -3169,16 +3599,16 @@
         <v>19</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3186,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>40</v>
@@ -3361,7 +3791,7 @@
         <v>98</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>99</v>
@@ -3373,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>100</v>
@@ -3391,7 +3821,7 @@
         <v>102</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E61" s="37" t="s">
         <v>101</v>
@@ -3403,7 +3833,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>104</v>
@@ -3463,7 +3893,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D66" s="44" t="s">
         <v>116</v>
@@ -3506,13 +3936,13 @@
         <v>11</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="D69" s="37" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" s="4"/>
     </row>
@@ -3521,13 +3951,13 @@
         <v>12</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="37" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" s="4"/>
     </row>
@@ -3536,13 +3966,13 @@
         <v>13</v>
       </c>
       <c r="C71" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="37" t="s">
         <v>126</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>127</v>
       </c>
       <c r="F71" s="4"/>
     </row>
@@ -3551,13 +3981,13 @@
         <v>14</v>
       </c>
       <c r="C72" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="37" t="s">
         <v>129</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>130</v>
       </c>
       <c r="F72" s="4"/>
     </row>
@@ -3566,13 +3996,13 @@
         <v>15</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="37" t="s">
         <v>136</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>139</v>
       </c>
       <c r="F73" s="4"/>
     </row>
@@ -3581,13 +4011,13 @@
         <v>16</v>
       </c>
       <c r="C74" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="37" t="s">
         <v>133</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>134</v>
       </c>
       <c r="F74" s="4"/>
     </row>
@@ -3596,13 +4026,13 @@
         <v>17</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D75" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="37" t="s">
         <v>137</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>140</v>
       </c>
       <c r="F75" s="4"/>
     </row>
@@ -3610,35 +4040,57 @@
       <c r="B76" s="2">
         <v>18</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="C76" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>166</v>
+      </c>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="2">
         <v>19</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="C77" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="2">
         <v>20</v>
       </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="C78" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="2">
         <v>21</v>
       </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="3"/>
+      <c r="C79" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="4"/>
     </row>
@@ -3646,8 +4098,12 @@
       <c r="B80" s="2">
         <v>22</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="3"/>
+      <c r="C80" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>177</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4"/>
     </row>
@@ -3655,54 +4111,90 @@
       <c r="B81" s="2">
         <v>23</v>
       </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="C81" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>179</v>
+      </c>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82" s="2">
         <v>24</v>
       </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="C82" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>182</v>
+      </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83" s="2">
         <v>25</v>
       </c>
-      <c r="C83" s="37"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="C83" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>186</v>
+      </c>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84" s="2">
         <v>26</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="C84" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>190</v>
+      </c>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85" s="2">
         <v>27</v>
       </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="C85" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>192</v>
+      </c>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86" s="2">
         <v>28</v>
       </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="C86" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="37" t="s">
+        <v>194</v>
+      </c>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
